--- a/01_Documentación/09 Mapa de Procesos/MAPA_PROC_G4_V5.0.xlsx
+++ b/01_Documentación/09 Mapa de Procesos/MAPA_PROC_G4_V5.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\ARCHIVOS_GIT\SilviaAnasco_14765_G4_IR\01_Documentación\09 Mapa de Procesos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD99AB70-3926-4AC4-9079-B82E4663EDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8809D3A-FAE7-4370-AC92-609EA98E030A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4997B183-6BA5-427C-8615-A6F9FCD80629}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4997B183-6BA5-427C-8615-A6F9FCD80629}"/>
   </bookViews>
   <sheets>
     <sheet name="MAPA 10 N" sheetId="1" r:id="rId1"/>
@@ -3044,8 +3044,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2296886" y="7089322"/>
-          <a:ext cx="1171575" cy="1219200"/>
+          <a:off x="2467193" y="7218154"/>
+          <a:ext cx="1257300" cy="1237488"/>
           <a:chOff x="9484702" y="2765066"/>
           <a:chExt cx="1089646" cy="1074767"/>
         </a:xfrm>
@@ -3346,8 +3346,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4393747" y="7075716"/>
-          <a:ext cx="1276351" cy="1206954"/>
+          <a:off x="4719502" y="7203786"/>
+          <a:ext cx="1370077" cy="1225623"/>
           <a:chOff x="9535756" y="2889558"/>
           <a:chExt cx="589065" cy="1246449"/>
         </a:xfrm>
@@ -4272,8 +4272,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6422572" y="7102929"/>
-          <a:ext cx="1219200" cy="1206954"/>
+          <a:off x="6897298" y="7231380"/>
+          <a:ext cx="1309116" cy="1225623"/>
           <a:chOff x="9535756" y="2889558"/>
           <a:chExt cx="589065" cy="1246449"/>
         </a:xfrm>
@@ -4612,8 +4612,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8382000" y="7089321"/>
-          <a:ext cx="1300843" cy="1206954"/>
+          <a:off x="9002268" y="7218153"/>
+          <a:ext cx="1397998" cy="1226004"/>
           <a:chOff x="9535756" y="2889558"/>
           <a:chExt cx="589065" cy="1246449"/>
         </a:xfrm>
@@ -4952,8 +4952,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12709072" y="7099527"/>
-          <a:ext cx="1229405" cy="1206954"/>
+          <a:off x="13650142" y="7227978"/>
+          <a:ext cx="1318940" cy="1226004"/>
           <a:chOff x="9535756" y="2889558"/>
           <a:chExt cx="589065" cy="1246449"/>
         </a:xfrm>
@@ -5292,8 +5292,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14748442" y="7101228"/>
-          <a:ext cx="1252539" cy="1206954"/>
+          <a:off x="15839626" y="7229679"/>
+          <a:ext cx="1345503" cy="1225623"/>
           <a:chOff x="9535756" y="2889558"/>
           <a:chExt cx="589065" cy="1246449"/>
         </a:xfrm>
@@ -5632,8 +5632,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16653442" y="7104629"/>
-          <a:ext cx="1181781" cy="1219200"/>
+          <a:off x="17886358" y="7233080"/>
+          <a:ext cx="1268649" cy="1239012"/>
           <a:chOff x="9484702" y="2765066"/>
           <a:chExt cx="1089646" cy="1074767"/>
         </a:xfrm>
@@ -7066,11 +7066,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE3A4D-6C57-42F5-813D-06E56D78CC84}">
   <dimension ref="A2:AX68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
